--- a/REGULAR/OJT/NEW DONE/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/OJT/NEW DONE/AUDITOR, AILEEN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\LEAVE CARD\PIO LEGAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC1A070-DD3A-458E-A56A-994B7DEC434E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="207">
   <si>
     <t>PERIOD</t>
   </si>
@@ -425,9 +418,6 @@
     <t>UT(1-2-40)</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>UT(0-4-56)</t>
   </si>
   <si>
@@ -642,12 +632,36 @@
   </si>
   <si>
     <t>08/02,03/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>PIO</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>1 - Married (and not separated)</t>
+  </si>
+  <si>
+    <t>10/21,24,25/2022</t>
+  </si>
+  <si>
+    <t>1/17,18/2023</t>
+  </si>
+  <si>
+    <t>1/3,4,5/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -878,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1055,6 +1069,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3039,25 +3056,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K235" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K252" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K252" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3069,13 +3087,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3084,14 +3102,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3395,7 +3413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3405,7 +3423,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3413,34 +3431,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K235"/>
+  <dimension ref="A2:K252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2100" topLeftCell="A194" activePane="bottomLeft"/>
-      <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="K232" sqref="K232"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane ySplit="3564" topLeftCell="A229" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="K240" sqref="K240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3452,7 +3470,9 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
+      <c r="F2" s="57" t="s">
+        <v>203</v>
+      </c>
       <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
@@ -3461,11 +3481,13 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
+      <c r="B3" s="50" t="s">
+        <v>202</v>
+      </c>
       <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -3479,16 +3501,20 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50"/>
+      <c r="B4" s="50" t="s">
+        <v>201</v>
+      </c>
       <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="55" t="s">
+        <v>200</v>
+      </c>
       <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3497,7 +3523,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3505,7 +3531,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3518,7 +3544,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3535,7 +3561,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3570,7 +3596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3579,7 +3605,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-6.0309999999999775</v>
+        <v>1.7630000000000337</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3589,12 +3615,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.75</v>
+        <v>55.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3616,7 +3642,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>40756</v>
       </c>
@@ -3640,7 +3666,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>40787</v>
       </c>
@@ -3664,7 +3690,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>40817</v>
       </c>
@@ -3688,7 +3714,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>40848</v>
       </c>
@@ -3712,7 +3738,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>60</v>
@@ -3734,7 +3760,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>40878</v>
       </c>
@@ -3760,7 +3786,7 @@
         <v>40891</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>44</v>
       </c>
@@ -3782,7 +3808,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>40909</v>
       </c>
@@ -3806,7 +3832,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>40940</v>
       </c>
@@ -3828,7 +3854,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>63</v>
@@ -3848,7 +3874,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>40969</v>
       </c>
@@ -3872,7 +3898,7 @@
         <v>41001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>64</v>
@@ -3892,7 +3918,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>41000</v>
       </c>
@@ -3916,7 +3942,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>41030</v>
       </c>
@@ -3942,7 +3968,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>67</v>
@@ -3962,7 +3988,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>41061</v>
       </c>
@@ -3986,7 +4012,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>71</v>
@@ -4008,7 +4034,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>41091</v>
       </c>
@@ -4032,7 +4058,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>41122</v>
       </c>
@@ -4058,7 +4084,7 @@
         <v>41127</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>60</v>
@@ -4080,7 +4106,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>73</v>
@@ -4100,7 +4126,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>41153</v>
       </c>
@@ -4126,7 +4152,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>60</v>
@@ -4148,7 +4174,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>62</v>
@@ -4168,7 +4194,7 @@
         <v>41179</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>74</v>
@@ -4188,7 +4214,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>41183</v>
       </c>
@@ -4214,7 +4240,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>60</v>
@@ -4236,7 +4262,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>75</v>
@@ -4256,7 +4282,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>76</v>
@@ -4276,7 +4302,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>41214</v>
       </c>
@@ -4286,7 +4312,9 @@
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
-      <c r="D40" s="39"/>
+      <c r="D40" s="39">
+        <v>1.9830000000000001</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
@@ -4298,7 +4326,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>41244</v>
       </c>
@@ -4324,7 +4352,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>80</v>
@@ -4346,7 +4374,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>81</v>
@@ -4366,7 +4394,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>47</v>
       </c>
@@ -4384,7 +4412,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>41275</v>
       </c>
@@ -4412,7 +4440,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>83</v>
@@ -4434,7 +4462,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>84</v>
@@ -4454,7 +4482,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>41306</v>
       </c>
@@ -4482,7 +4510,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>62</v>
@@ -4502,7 +4530,7 @@
         <v>41333</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>86</v>
@@ -4522,7 +4550,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>41334</v>
       </c>
@@ -4546,7 +4574,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>41365</v>
       </c>
@@ -4570,7 +4598,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>85</v>
@@ -4592,7 +4620,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>41395</v>
       </c>
@@ -4618,7 +4646,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>89</v>
@@ -4638,7 +4666,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>60</v>
@@ -4660,7 +4688,7 @@
         <v>41408</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>41426</v>
       </c>
@@ -4686,7 +4714,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>90</v>
@@ -4706,7 +4734,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>41456</v>
       </c>
@@ -4732,7 +4760,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>98</v>
@@ -4752,7 +4780,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>41487</v>
       </c>
@@ -4778,7 +4806,7 @@
         <v>41514</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>99</v>
@@ -4798,7 +4826,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>41518</v>
       </c>
@@ -4824,7 +4852,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>100</v>
@@ -4844,7 +4872,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>101</v>
@@ -4864,7 +4892,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>41548</v>
       </c>
@@ -4890,7 +4918,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>62</v>
@@ -4910,7 +4938,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>102</v>
@@ -4930,7 +4958,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>41579</v>
       </c>
@@ -4954,7 +4982,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>41609</v>
       </c>
@@ -4978,7 +5006,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
         <v>56</v>
       </c>
@@ -4996,7 +5024,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>41640</v>
       </c>
@@ -5022,7 +5050,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>96</v>
@@ -5044,7 +5072,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>104</v>
@@ -5068,7 +5096,7 @@
         <v>41667</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>105</v>
@@ -5088,7 +5116,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>85</v>
@@ -5110,7 +5138,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>41671</v>
       </c>
@@ -5140,7 +5168,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>106</v>
@@ -5160,7 +5188,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>41699</v>
       </c>
@@ -5184,7 +5212,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>41730</v>
       </c>
@@ -5210,7 +5238,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>108</v>
@@ -5230,7 +5258,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>85</v>
@@ -5252,7 +5280,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>41760</v>
       </c>
@@ -5276,7 +5304,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>82</v>
@@ -5300,7 +5328,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>119</v>
@@ -5320,7 +5348,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>41791</v>
       </c>
@@ -5346,7 +5374,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>120</v>
@@ -5363,24 +5391,24 @@
       <c r="J87" s="11"/>
       <c r="K87" s="48"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>121</v>
       </c>
       <c r="C88" s="13"/>
-      <c r="D88" s="39">
+      <c r="D88" s="39"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="39">
         <v>3.5</v>
       </c>
-      <c r="E88" s="9"/>
-      <c r="F88" s="20"/>
       <c r="G88" s="13"/>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>41821</v>
       </c>
@@ -5404,7 +5432,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>41852</v>
       </c>
@@ -5428,7 +5456,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>41883</v>
       </c>
@@ -5452,7 +5480,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>125</v>
@@ -5472,7 +5500,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>41913</v>
       </c>
@@ -5482,7 +5510,9 @@
       <c r="C93" s="13">
         <v>1.25</v>
       </c>
-      <c r="D93" s="39"/>
+      <c r="D93" s="39">
+        <v>1.333</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13">
@@ -5494,168 +5524,172 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>41944</v>
+      </c>
       <c r="B94" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="39"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D94" s="39">
+        <v>0.61699999999999999</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>41944</v>
-      </c>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C95" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C95" s="13"/>
       <c r="D95" s="39">
-        <v>0.61699999999999999</v>
+        <v>3</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G95" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="K95" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>41974</v>
+      </c>
       <c r="B96" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C96" s="13"/>
+        <v>130</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39">
-        <v>3</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40">
-        <v>41974</v>
-      </c>
+      <c r="K96" s="20"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C97" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D97" s="39">
-        <v>0.70399999999999996</v>
-      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="39"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="F97" s="39">
+        <v>5</v>
+      </c>
+      <c r="G97" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="20" t="s">
+      <c r="K97" s="20" t="s">
         <v>132</v>
       </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B98" s="20"/>
       <c r="C98" s="13"/>
-      <c r="D98" s="39">
-        <v>5</v>
-      </c>
-      <c r="E98" s="9"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F98" s="20"/>
       <c r="G98" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H98" s="39"/>
-      <c r="I98" s="9"/>
+      <c r="I98" s="34"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20" t="s">
+      <c r="K98" s="20"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>42005</v>
+      </c>
+      <c r="B99" s="20" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D99" s="39">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
-      <c r="I99" s="34"/>
+      <c r="I99" s="9"/>
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
-        <v>42005</v>
-      </c>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C100" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D100" s="39">
-        <v>0.58499999999999996</v>
-      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="39"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="F100" s="39">
+        <v>7</v>
+      </c>
+      <c r="G100" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K100" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
@@ -5666,86 +5700,86 @@
       <c r="H101" s="39"/>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K101" s="48">
+        <v>42032</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="C102" s="13"/>
-      <c r="D102" s="39">
-        <v>1</v>
-      </c>
+      <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H102" s="39"/>
+      <c r="H102" s="39">
+        <v>2</v>
+      </c>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="48">
-        <v>42032</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="K102" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40" t="s">
+        <v>139</v>
+      </c>
       <c r="B103" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="39"/>
+        <v>138</v>
+      </c>
+      <c r="C103" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D103" s="39">
+        <v>0.59799999999999998</v>
+      </c>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="39">
-        <v>2</v>
-      </c>
+      <c r="G103" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40" t="s">
+      <c r="K103" s="20"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40"/>
+      <c r="B104" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B104" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C104" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C104" s="13"/>
       <c r="D104" s="39">
-        <v>0.59799999999999998</v>
+        <v>6</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="39">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
@@ -5756,18 +5790,18 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+      <c r="K105" s="20"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
+        <v>42064</v>
+      </c>
       <c r="B106" s="20" t="s">
         <v>143</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="39">
-        <v>1.5</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
@@ -5780,16 +5814,14 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40">
-        <v>42064</v>
-      </c>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="39">
-        <v>0.94199999999999995</v>
+        <v>5</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
@@ -5800,268 +5832,270 @@
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+      <c r="K107" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
+        <v>42095</v>
+      </c>
       <c r="B108" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" s="13"/>
+        <v>145</v>
+      </c>
+      <c r="C108" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D108" s="39">
-        <v>5</v>
+        <v>1.5669999999999999</v>
       </c>
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G108" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40">
-        <v>42095</v>
-      </c>
+      <c r="K108" s="20"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C109" s="13">
-        <v>1.25</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C109" s="13"/>
       <c r="D109" s="39">
-        <v>1.5669999999999999</v>
+        <v>2</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
-      <c r="G109" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+      <c r="K109" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <v>42125</v>
+      </c>
       <c r="B110" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C110" s="13"/>
+        <v>146</v>
+      </c>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D110" s="39">
-        <v>2</v>
+        <v>1.421</v>
       </c>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20" t="s">
+      <c r="K110" s="20"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40"/>
+      <c r="B111" s="20" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40">
-        <v>42125</v>
-      </c>
-      <c r="B111" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C111" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C111" s="13"/>
       <c r="D111" s="39">
-        <v>1.421</v>
+        <v>7.5</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+      <c r="K111" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <v>42156</v>
+      </c>
       <c r="B112" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C112" s="13"/>
+        <v>98</v>
+      </c>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D112" s="39">
-        <v>7.5</v>
+        <v>0.746</v>
       </c>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="20" t="s">
+      <c r="K112" s="20"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40"/>
+      <c r="B113" s="20" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
-        <v>42156</v>
-      </c>
-      <c r="B113" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C113" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C113" s="13"/>
       <c r="D113" s="39">
-        <v>0.746</v>
+        <v>4.5</v>
       </c>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H113" s="39"/>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+      <c r="K113" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40">
+        <v>42186</v>
+      </c>
       <c r="B114" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C114" s="13"/>
+        <v>153</v>
+      </c>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39">
-        <v>4.5</v>
+        <v>1.175</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40">
-        <v>42186</v>
-      </c>
+      <c r="K114" s="20"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C115" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C115" s="13"/>
       <c r="D115" s="39">
-        <v>1.175</v>
+        <v>6.5</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G115" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K115" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="C116" s="13"/>
-      <c r="D116" s="39">
-        <v>6.5</v>
-      </c>
+      <c r="D116" s="39"/>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
       <c r="G116" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H116" s="39"/>
+      <c r="H116" s="39">
+        <v>1</v>
+      </c>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+      <c r="K116" s="48">
+        <v>42199</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40">
+        <v>42217</v>
+      </c>
       <c r="B117" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="39"/>
+        <v>155</v>
+      </c>
+      <c r="C117" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D117" s="39">
+        <v>0.80400000000000005</v>
+      </c>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="39">
-        <v>1</v>
-      </c>
+      <c r="G117" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H117" s="39"/>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="48">
-        <v>42199</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40">
-        <v>42217</v>
-      </c>
+      <c r="K117" s="20"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C118" s="13">
-        <v>1.25</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C118" s="13"/>
       <c r="D118" s="39">
-        <v>0.80400000000000005</v>
+        <v>6</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
-      <c r="G118" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H118" s="39"/>
       <c r="I118" s="9"/>
       <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K118" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="C119" s="13"/>
       <c r="D119" s="39">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
@@ -6072,127 +6106,129 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
-      <c r="K119" s="20" t="s">
+      <c r="K119" s="48">
+        <v>42240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40">
+        <v>42248</v>
+      </c>
+      <c r="B120" s="20" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
-      <c r="B120" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C120" s="13"/>
+      <c r="C120" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D120" s="39">
-        <v>0.5</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G120" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H120" s="39"/>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="48">
-        <v>42240</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>42248</v>
-      </c>
+      <c r="K120" s="20"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C121" s="13">
-        <v>1.25</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C121" s="13"/>
       <c r="D121" s="39">
-        <v>0.73299999999999998</v>
+        <v>4.5</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
-      <c r="G121" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G121" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+      <c r="K121" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40">
+        <v>42278</v>
+      </c>
       <c r="B122" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C122" s="13"/>
+        <v>161</v>
+      </c>
+      <c r="C122" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D122" s="39">
-        <v>4.5</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G122" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40">
-        <v>42278</v>
-      </c>
+      <c r="K122" s="20"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C123" s="13">
-        <v>1.25</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C123" s="13"/>
       <c r="D123" s="39">
-        <v>0.73699999999999999</v>
+        <v>6</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G123" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H123" s="39"/>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+      <c r="K123" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
+        <v>42309</v>
+      </c>
       <c r="B124" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C124" s="13"/>
+        <v>163</v>
+      </c>
+      <c r="C124" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D124" s="39">
-        <v>6</v>
+        <v>1.417</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G124" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K124" s="20"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B125" s="20" t="s">
         <v>164</v>
@@ -6201,7 +6237,7 @@
         <v>1.25</v>
       </c>
       <c r="D125" s="39">
-        <v>1.417</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
@@ -6214,73 +6250,71 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40">
-        <v>42339</v>
-      </c>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C126" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D126" s="39"/>
+        <v>131</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="39">
+        <v>5</v>
+      </c>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
-      <c r="B127" s="20" t="s">
-        <v>132</v>
-      </c>
+      <c r="K126" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B127" s="20"/>
       <c r="C127" s="13"/>
-      <c r="D127" s="39">
-        <v>5</v>
-      </c>
-      <c r="E127" s="9"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F127" s="20"/>
       <c r="G127" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H127" s="39"/>
-      <c r="I127" s="9"/>
+      <c r="I127" s="34"/>
       <c r="J127" s="11"/>
-      <c r="K127" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="47" t="s">
-        <v>54</v>
+      <c r="K127" s="20"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="40">
+        <v>42370</v>
       </c>
       <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
+      <c r="C128" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D128" s="39"/>
-      <c r="E128" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E128" s="9"/>
       <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G128" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H128" s="39"/>
-      <c r="I128" s="34"/>
+      <c r="I128" s="9"/>
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13">
@@ -6298,9 +6332,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -6318,9 +6352,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13">
@@ -6338,9 +6372,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13">
@@ -6358,9 +6392,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
@@ -6378,9 +6412,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13">
@@ -6398,9 +6432,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -6418,9 +6452,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13">
@@ -6438,9 +6472,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13">
@@ -6458,9 +6492,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13">
@@ -6478,15 +6512,19 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>42675</v>
-      </c>
-      <c r="B139" s="20"/>
+        <v>42705</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="C139" s="13">
         <v>1.25</v>
       </c>
-      <c r="D139" s="39"/>
+      <c r="D139" s="39">
+        <v>5</v>
+      </c>
       <c r="E139" s="9"/>
       <c r="F139" s="20"/>
       <c r="G139" s="13">
@@ -6498,59 +6536,59 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="40">
-        <v>42705</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C140" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D140" s="39">
-        <v>5</v>
-      </c>
-      <c r="E140" s="9"/>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F140" s="20"/>
-      <c r="G140" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H140" s="39"/>
-      <c r="I140" s="9"/>
+      <c r="I140" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B141" s="20"/>
-      <c r="C141" s="13"/>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="40">
+        <v>42736</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C141" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D141" s="39"/>
-      <c r="E141" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E141" s="9"/>
       <c r="F141" s="20"/>
-      <c r="G141" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H141" s="39"/>
-      <c r="I141" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="G141" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H141" s="39">
+        <v>3</v>
+      </c>
+      <c r="I141" s="9"/>
       <c r="J141" s="11"/>
-      <c r="K141" s="20"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K141" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
-        <v>42736</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>71</v>
-      </c>
+        <v>42767</v>
+      </c>
+      <c r="B142" s="20"/>
       <c r="C142" s="13">
         <v>1.25</v>
       </c>
@@ -6561,18 +6599,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H142" s="39">
-        <v>3</v>
-      </c>
+      <c r="H142" s="39"/>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
-      <c r="K142" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
@@ -6590,9 +6624,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13">
@@ -6610,9 +6644,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
@@ -6630,9 +6664,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13">
@@ -6650,9 +6684,9 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -6670,9 +6704,9 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13">
@@ -6690,9 +6724,9 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13">
@@ -6710,9 +6744,9 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13">
@@ -6730,9 +6764,9 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -6750,15 +6784,19 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <v>43040</v>
-      </c>
-      <c r="B152" s="20"/>
+        <v>43070</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="C152" s="13">
         <v>1.25</v>
       </c>
-      <c r="D152" s="39"/>
+      <c r="D152" s="39">
+        <v>5</v>
+      </c>
       <c r="E152" s="9"/>
       <c r="F152" s="20"/>
       <c r="G152" s="13">
@@ -6770,55 +6808,57 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="40">
-        <v>43070</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C153" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D153" s="39">
-        <v>5</v>
-      </c>
-      <c r="E153" s="9"/>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F153" s="20"/>
-      <c r="G153" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H153" s="39"/>
-      <c r="I153" s="9"/>
+      <c r="I153" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B154" s="20"/>
-      <c r="C154" s="13"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="40">
+        <v>43101</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C154" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D154" s="39"/>
-      <c r="E154" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E154" s="9"/>
       <c r="F154" s="20"/>
-      <c r="G154" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H154" s="39"/>
-      <c r="I154" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="G154" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H154" s="39">
+        <v>1</v>
+      </c>
+      <c r="I154" s="9"/>
       <c r="J154" s="11"/>
-      <c r="K154" s="20"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K154" s="48">
+        <v>43143</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B155" s="20" t="s">
         <v>60</v>
@@ -6839,15 +6879,15 @@
       <c r="I155" s="9"/>
       <c r="J155" s="11"/>
       <c r="K155" s="48">
-        <v>43143</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43146</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C156" s="13">
         <v>1.25</v>
@@ -6860,17 +6900,17 @@
         <v>1.25</v>
       </c>
       <c r="H156" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="48">
-        <v>43146</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K156" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B157" s="20" t="s">
         <v>85</v>
@@ -6894,9 +6934,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B158" s="20" t="s">
         <v>85</v>
@@ -6920,13 +6960,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
-        <v>43221</v>
-      </c>
-      <c r="B159" s="20" t="s">
-        <v>85</v>
-      </c>
+        <v>43252</v>
+      </c>
+      <c r="B159" s="20"/>
       <c r="C159" s="13">
         <v>1.25</v>
       </c>
@@ -6937,18 +6975,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H159" s="39">
-        <v>2</v>
-      </c>
+      <c r="H159" s="39"/>
       <c r="I159" s="9"/>
       <c r="J159" s="11"/>
-      <c r="K159" s="20" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K159" s="20"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13">
@@ -6966,11 +7000,13 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
-        <v>43282</v>
-      </c>
-      <c r="B161" s="20"/>
+        <v>43313</v>
+      </c>
+      <c r="B161" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C161" s="13">
         <v>1.25</v>
       </c>
@@ -6981,17 +7017,21 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H161" s="39"/>
+      <c r="H161" s="39">
+        <v>1</v>
+      </c>
       <c r="I161" s="9"/>
       <c r="J161" s="11"/>
-      <c r="K161" s="20"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K161" s="48">
+        <v>43325</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C162" s="13">
         <v>1.25</v>
@@ -7004,17 +7044,17 @@
         <v>1.25</v>
       </c>
       <c r="H162" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
-      <c r="K162" s="48">
-        <v>43325</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K162" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B163" s="20" t="s">
         <v>85</v>
@@ -7038,22 +7078,18 @@
         <v>172</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="40">
-        <v>43374</v>
-      </c>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C164" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C164" s="13"/>
       <c r="D164" s="39"/>
       <c r="E164" s="9"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G164" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H164" s="39">
         <v>2</v>
@@ -7064,37 +7100,39 @@
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="40"/>
-      <c r="B165" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C165" s="13"/>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="40">
+        <v>43405</v>
+      </c>
+      <c r="B165" s="20"/>
+      <c r="C165" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D165" s="39"/>
       <c r="E165" s="9"/>
       <c r="F165" s="20"/>
-      <c r="G165" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H165" s="39">
-        <v>2</v>
-      </c>
+      <c r="G165" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H165" s="39"/>
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
-      <c r="K165" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K165" s="20"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
-        <v>43405</v>
-      </c>
-      <c r="B166" s="20"/>
+        <v>43435</v>
+      </c>
+      <c r="B166" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="C166" s="13">
         <v>1.25</v>
       </c>
-      <c r="D166" s="39"/>
+      <c r="D166" s="39">
+        <v>5</v>
+      </c>
       <c r="E166" s="9"/>
       <c r="F166" s="20"/>
       <c r="G166" s="13">
@@ -7106,147 +7144,149 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="40">
-        <v>43435</v>
-      </c>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C167" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D167" s="39">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C167" s="13"/>
+      <c r="D167" s="39"/>
       <c r="E167" s="9"/>
       <c r="F167" s="20"/>
-      <c r="G167" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H167" s="39"/>
+      <c r="G167" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H167" s="39">
+        <v>1</v>
+      </c>
       <c r="I167" s="9"/>
       <c r="J167" s="11"/>
-      <c r="K167" s="20"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="40"/>
-      <c r="B168" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K167" s="48">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B168" s="20"/>
       <c r="C168" s="13"/>
       <c r="D168" s="39"/>
-      <c r="E168" s="9"/>
+      <c r="E168" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F168" s="20"/>
       <c r="G168" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H168" s="39">
-        <v>1</v>
-      </c>
-      <c r="I168" s="9"/>
+      <c r="H168" s="39"/>
+      <c r="I168" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J168" s="11"/>
-      <c r="K168" s="48">
-        <v>43462</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="B169" s="20"/>
-      <c r="C169" s="13"/>
+      <c r="K168" s="20"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="40">
+        <v>43466</v>
+      </c>
+      <c r="B169" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C169" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D169" s="39"/>
-      <c r="E169" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E169" s="9"/>
       <c r="F169" s="20"/>
-      <c r="G169" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H169" s="39"/>
-      <c r="I169" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="G169" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H169" s="39">
+        <v>2</v>
+      </c>
+      <c r="I169" s="9"/>
       <c r="J169" s="11"/>
-      <c r="K169" s="20"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="40">
-        <v>43466</v>
-      </c>
+      <c r="K169" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C170" s="13">
-        <v>1.25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C170" s="13"/>
       <c r="D170" s="39"/>
       <c r="E170" s="9"/>
       <c r="F170" s="20"/>
-      <c r="G170" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G170" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H170" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
-      <c r="K170" s="20" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K170" s="48">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="C171" s="13"/>
-      <c r="D171" s="39"/>
+      <c r="D171" s="39">
+        <v>2</v>
+      </c>
       <c r="E171" s="9"/>
       <c r="F171" s="20"/>
       <c r="G171" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H171" s="39">
-        <v>1</v>
-      </c>
+      <c r="H171" s="39"/>
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
-      <c r="K171" s="48">
-        <v>43494</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="40"/>
+      <c r="K171" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="40">
+        <v>43497</v>
+      </c>
       <c r="B172" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C172" s="13"/>
-      <c r="D172" s="39">
-        <v>2</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C172" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D172" s="39"/>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
-      <c r="G172" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H172" s="39"/>
+      <c r="G172" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H172" s="39">
+        <v>2</v>
+      </c>
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
       <c r="K172" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B173" s="20" t="s">
         <v>85</v>
@@ -7270,33 +7310,29 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="40">
-        <v>43525</v>
-      </c>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C174" s="13">
-        <v>1.25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C174" s="13"/>
       <c r="D174" s="39"/>
       <c r="E174" s="9"/>
       <c r="F174" s="20"/>
-      <c r="G174" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G174" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H174" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
-      <c r="K174" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K174" s="48">
+        <v>43542</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>60</v>
@@ -7315,82 +7351,80 @@
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
       <c r="K175" s="48">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="40"/>
+        <v>43543</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="40">
+        <v>43556</v>
+      </c>
       <c r="B176" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C176" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="C176" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D176" s="39"/>
       <c r="E176" s="9"/>
       <c r="F176" s="20"/>
-      <c r="G176" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G176" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H176" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
-      <c r="K176" s="48">
-        <v>43543</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="40">
-        <v>43556</v>
-      </c>
+      <c r="K176" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C177" s="13">
-        <v>1.25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C177" s="13"/>
       <c r="D177" s="39"/>
       <c r="E177" s="9"/>
       <c r="F177" s="20"/>
-      <c r="G177" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G177" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H177" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" s="9"/>
       <c r="J177" s="11"/>
-      <c r="K177" s="20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="40"/>
-      <c r="B178" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C178" s="13"/>
+      <c r="K177" s="48">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="40">
+        <v>43586</v>
+      </c>
+      <c r="B178" s="20"/>
+      <c r="C178" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D178" s="39"/>
       <c r="E178" s="9"/>
       <c r="F178" s="20"/>
-      <c r="G178" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H178" s="39">
-        <v>1</v>
-      </c>
+      <c r="G178" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H178" s="39"/>
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
-      <c r="K178" s="48">
-        <v>43633</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K178" s="20"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13">
@@ -7408,11 +7442,13 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <v>43617</v>
-      </c>
-      <c r="B180" s="20"/>
+        <v>43647</v>
+      </c>
+      <c r="B180" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C180" s="13">
         <v>1.25</v>
       </c>
@@ -7423,14 +7459,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H180" s="39"/>
+      <c r="H180" s="39">
+        <v>1</v>
+      </c>
       <c r="I180" s="9"/>
       <c r="J180" s="11"/>
-      <c r="K180" s="20"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K180" s="48">
+        <v>43697</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B181" s="20" t="s">
         <v>60</v>
@@ -7451,65 +7491,61 @@
       <c r="I181" s="9"/>
       <c r="J181" s="11"/>
       <c r="K181" s="48">
-        <v>43697</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="C182" s="13">
         <v>1.25</v>
       </c>
-      <c r="D182" s="39"/>
+      <c r="D182" s="39">
+        <v>4</v>
+      </c>
       <c r="E182" s="9"/>
       <c r="F182" s="20"/>
       <c r="G182" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H182" s="39">
-        <v>1</v>
-      </c>
+      <c r="H182" s="39"/>
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
-      <c r="K182" s="48">
-        <v>43704</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="40">
-        <v>43709</v>
-      </c>
+      <c r="K182" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C183" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D183" s="39">
-        <v>4</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C183" s="13"/>
+      <c r="D183" s="39"/>
       <c r="E183" s="9"/>
       <c r="F183" s="20"/>
-      <c r="G183" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H183" s="39"/>
+      <c r="G183" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H183" s="39">
+        <v>2</v>
+      </c>
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
       <c r="K183" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="39"/>
@@ -7520,7 +7556,7 @@
         <v/>
       </c>
       <c r="H184" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
@@ -7528,33 +7564,33 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="40"/>
-      <c r="B185" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C185" s="13"/>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="40">
+        <v>43739</v>
+      </c>
+      <c r="B185" s="20"/>
+      <c r="C185" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D185" s="39"/>
       <c r="E185" s="9"/>
       <c r="F185" s="20"/>
-      <c r="G185" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H185" s="39">
-        <v>3</v>
-      </c>
+      <c r="G185" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H185" s="39"/>
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
-      <c r="K185" s="20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K185" s="20"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <v>43739</v>
-      </c>
-      <c r="B186" s="20"/>
+        <v>43770</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C186" s="13">
         <v>1.25</v>
       </c>
@@ -7565,41 +7601,39 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H186" s="39"/>
+      <c r="H186" s="39">
+        <v>1</v>
+      </c>
       <c r="I186" s="9"/>
       <c r="J186" s="11"/>
-      <c r="K186" s="20"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="40">
-        <v>43770</v>
-      </c>
+      <c r="K186" s="48">
+        <v>43787</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C187" s="13">
-        <v>1.25</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C187" s="13"/>
       <c r="D187" s="39"/>
       <c r="E187" s="9"/>
       <c r="F187" s="20"/>
-      <c r="G187" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H187" s="39">
-        <v>1</v>
-      </c>
+      <c r="G187" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H187" s="39"/>
       <c r="I187" s="9"/>
       <c r="J187" s="11"/>
-      <c r="K187" s="48">
-        <v>43787</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K187" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="39"/>
@@ -7609,88 +7643,90 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H188" s="39"/>
+      <c r="H188" s="39">
+        <v>2</v>
+      </c>
       <c r="I188" s="9"/>
       <c r="J188" s="11"/>
       <c r="K188" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="40"/>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="40">
+        <v>43800</v>
+      </c>
       <c r="B189" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C189" s="13"/>
-      <c r="D189" s="39"/>
+        <v>183</v>
+      </c>
+      <c r="C189" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D189" s="39">
+        <v>1</v>
+      </c>
       <c r="E189" s="9"/>
       <c r="F189" s="20"/>
-      <c r="G189" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H189" s="39">
-        <v>2</v>
-      </c>
+      <c r="G189" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H189" s="39"/>
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
-      <c r="K189" s="20" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="40">
-        <v>43800</v>
-      </c>
-      <c r="B190" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C190" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D190" s="39">
-        <v>1</v>
-      </c>
-      <c r="E190" s="9"/>
+      <c r="K189" s="20"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B190" s="20"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F190" s="20"/>
-      <c r="G190" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G190" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H190" s="39"/>
-      <c r="I190" s="9"/>
+      <c r="I190" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B191" s="20"/>
-      <c r="C191" s="13"/>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C191" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D191" s="39"/>
-      <c r="E191" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E191" s="9"/>
       <c r="F191" s="20"/>
-      <c r="G191" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G191" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H191" s="39"/>
-      <c r="I191" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I191" s="9"/>
       <c r="J191" s="11"/>
-      <c r="K191" s="20"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K191" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B192" s="20" t="s">
-        <v>187</v>
-      </c>
+        <v>43862</v>
+      </c>
+      <c r="B192" s="20"/>
       <c r="C192" s="13">
         <v>1.25</v>
       </c>
@@ -7704,13 +7740,11 @@
       <c r="H192" s="39"/>
       <c r="I192" s="9"/>
       <c r="J192" s="11"/>
-      <c r="K192" s="20" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K192" s="20"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -7728,9 +7762,9 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13">
@@ -7748,9 +7782,9 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13">
@@ -7768,11 +7802,13 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
-        <v>43952</v>
-      </c>
-      <c r="B196" s="20"/>
+        <v>43983</v>
+      </c>
+      <c r="B196" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="C196" s="13">
         <v>1.25</v>
       </c>
@@ -7783,49 +7819,53 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H196" s="39"/>
+      <c r="H196" s="39">
+        <v>2</v>
+      </c>
       <c r="I196" s="9"/>
       <c r="J196" s="11"/>
-      <c r="K196" s="20"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="40">
-        <v>43983</v>
-      </c>
+      <c r="K196" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="C197" s="13">
-        <v>1.25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C197" s="13"/>
       <c r="D197" s="39"/>
       <c r="E197" s="9"/>
       <c r="F197" s="20"/>
-      <c r="G197" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G197" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H197" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" s="9"/>
       <c r="J197" s="11"/>
-      <c r="K197" s="20" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="40"/>
+      <c r="K197" s="48">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="40">
+        <v>44013</v>
+      </c>
       <c r="B198" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C198" s="13"/>
+      <c r="C198" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D198" s="39"/>
       <c r="E198" s="9"/>
       <c r="F198" s="20"/>
-      <c r="G198" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G198" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H198" s="39">
         <v>1</v>
@@ -7833,47 +7873,47 @@
       <c r="I198" s="9"/>
       <c r="J198" s="11"/>
       <c r="K198" s="48">
-        <v>44011</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="40">
-        <v>44013</v>
-      </c>
+        <v>44020</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C199" s="13">
-        <v>1.25</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C199" s="13"/>
       <c r="D199" s="39"/>
       <c r="E199" s="9"/>
       <c r="F199" s="20"/>
-      <c r="G199" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G199" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H199" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" s="9"/>
       <c r="J199" s="11"/>
-      <c r="K199" s="48">
-        <v>44020</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="40"/>
+      <c r="K199" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="40">
+        <v>44044</v>
+      </c>
       <c r="B200" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C200" s="13"/>
+      <c r="C200" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D200" s="39"/>
       <c r="E200" s="9"/>
       <c r="F200" s="20"/>
-      <c r="G200" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G200" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H200" s="39">
         <v>2</v>
@@ -7884,12 +7924,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C201" s="13">
         <v>1.25</v>
@@ -7902,21 +7942,19 @@
         <v>1.25</v>
       </c>
       <c r="H201" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" s="9"/>
       <c r="J201" s="11"/>
-      <c r="K201" s="20" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K201" s="48">
+        <v>44092</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
-        <v>44075</v>
-      </c>
-      <c r="B202" s="20" t="s">
-        <v>60</v>
-      </c>
+        <v>44105</v>
+      </c>
+      <c r="B202" s="20"/>
       <c r="C202" s="13">
         <v>1.25</v>
       </c>
@@ -7927,18 +7965,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H202" s="39">
-        <v>1</v>
-      </c>
+      <c r="H202" s="39"/>
       <c r="I202" s="9"/>
       <c r="J202" s="11"/>
-      <c r="K202" s="48">
-        <v>44092</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K202" s="20"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13">
@@ -7956,15 +7990,19 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
-        <v>44136</v>
-      </c>
-      <c r="B204" s="20"/>
+        <v>44166</v>
+      </c>
+      <c r="B204" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="C204" s="13">
         <v>1.25</v>
       </c>
-      <c r="D204" s="39"/>
+      <c r="D204" s="39">
+        <v>5</v>
+      </c>
       <c r="E204" s="9"/>
       <c r="F204" s="20"/>
       <c r="G204" s="13">
@@ -7976,55 +8014,51 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="40">
-        <v>44166</v>
-      </c>
-      <c r="B205" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C205" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D205" s="39">
-        <v>5</v>
-      </c>
-      <c r="E205" s="9"/>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A205" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B205" s="20"/>
+      <c r="C205" s="13"/>
+      <c r="D205" s="39"/>
+      <c r="E205" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F205" s="20"/>
-      <c r="G205" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G205" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H205" s="39"/>
-      <c r="I205" s="9"/>
+      <c r="I205" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="47" t="s">
-        <v>49</v>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A206" s="40">
+        <v>44197</v>
       </c>
       <c r="B206" s="20"/>
-      <c r="C206" s="13"/>
+      <c r="C206" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D206" s="39"/>
-      <c r="E206" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E206" s="9"/>
       <c r="F206" s="20"/>
-      <c r="G206" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G206" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H206" s="39"/>
-      <c r="I206" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I206" s="9"/>
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13">
@@ -8042,9 +8076,9 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13">
@@ -8062,9 +8096,9 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -8082,9 +8116,9 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13">
@@ -8102,9 +8136,9 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13">
@@ -8122,49 +8156,49 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
-        <v>44348</v>
-      </c>
-      <c r="B212" s="20"/>
+        <v>44378</v>
+      </c>
+      <c r="B212" s="15"/>
       <c r="C212" s="13">
         <v>1.25</v>
       </c>
-      <c r="D212" s="39"/>
+      <c r="D212" s="42"/>
       <c r="E212" s="9"/>
-      <c r="F212" s="20"/>
-      <c r="G212" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H212" s="39"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H212" s="42"/>
       <c r="I212" s="9"/>
-      <c r="J212" s="11"/>
-      <c r="K212" s="20"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J212" s="12"/>
+      <c r="K212" s="15"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
-        <v>44378</v>
-      </c>
-      <c r="B213" s="15"/>
+        <v>44409</v>
+      </c>
+      <c r="B213" s="20"/>
       <c r="C213" s="13">
         <v>1.25</v>
       </c>
-      <c r="D213" s="42"/>
+      <c r="D213" s="39"/>
       <c r="E213" s="9"/>
-      <c r="F213" s="15"/>
+      <c r="F213" s="20"/>
       <c r="G213" s="41">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H213" s="42"/>
+      <c r="H213" s="39"/>
       <c r="I213" s="9"/>
-      <c r="J213" s="12"/>
-      <c r="K213" s="15"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J213" s="11"/>
+      <c r="K213" s="20"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13">
@@ -8182,9 +8216,9 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13">
@@ -8202,9 +8236,9 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13">
@@ -8222,11 +8256,13 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
-        <v>44501</v>
-      </c>
-      <c r="B217" s="20"/>
+        <v>44531</v>
+      </c>
+      <c r="B217" s="20" t="s">
+        <v>192</v>
+      </c>
       <c r="C217" s="13">
         <v>1.25</v>
       </c>
@@ -8240,77 +8276,75 @@
       <c r="H217" s="39"/>
       <c r="I217" s="9"/>
       <c r="J217" s="11"/>
-      <c r="K217" s="20"/>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="40">
-        <v>44531</v>
-      </c>
+      <c r="K217" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="C218" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D218" s="39"/>
+        <v>166</v>
+      </c>
+      <c r="C218" s="13"/>
+      <c r="D218" s="39">
+        <v>5</v>
+      </c>
       <c r="E218" s="9"/>
       <c r="F218" s="20"/>
-      <c r="G218" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G218" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H218" s="39"/>
       <c r="I218" s="9"/>
       <c r="J218" s="11"/>
-      <c r="K218" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="40"/>
-      <c r="B219" s="20" t="s">
-        <v>167</v>
-      </c>
+      <c r="K218" s="20"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B219" s="20"/>
       <c r="C219" s="13"/>
-      <c r="D219" s="39">
-        <v>5</v>
-      </c>
-      <c r="E219" s="9"/>
+      <c r="D219" s="39"/>
+      <c r="E219" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="F219" s="20"/>
-      <c r="G219" s="13" t="str">
+      <c r="G219" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H219" s="39"/>
-      <c r="I219" s="9"/>
+      <c r="I219" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="47" t="s">
-        <v>48</v>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" s="40">
+        <v>44562</v>
       </c>
       <c r="B220" s="20"/>
-      <c r="C220" s="13"/>
+      <c r="C220" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D220" s="39"/>
-      <c r="E220" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="E220" s="9"/>
       <c r="F220" s="20"/>
-      <c r="G220" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G220" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H220" s="39"/>
-      <c r="I220" s="34" t="s">
-        <v>32</v>
-      </c>
+      <c r="I220" s="9"/>
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13">
@@ -8328,9 +8362,9 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13">
@@ -8348,11 +8382,13 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
-        <v>44621</v>
-      </c>
-      <c r="B223" s="20"/>
+        <v>44652</v>
+      </c>
+      <c r="B223" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C223" s="13">
         <v>1.25</v>
       </c>
@@ -8363,41 +8399,41 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H223" s="39"/>
+      <c r="H223" s="39">
+        <v>1</v>
+      </c>
       <c r="I223" s="9"/>
       <c r="J223" s="11"/>
-      <c r="K223" s="20"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="40">
-        <v>44652</v>
-      </c>
+      <c r="K223" s="48">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C224" s="13">
-        <v>1.25</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C224" s="13"/>
       <c r="D224" s="39"/>
       <c r="E224" s="9"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G224" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H224" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" s="9"/>
       <c r="J224" s="11"/>
-      <c r="K224" s="48">
-        <v>44648</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K224" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C225" s="13"/>
       <c r="D225" s="39"/>
@@ -8407,19 +8443,17 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H225" s="39">
-        <v>2</v>
-      </c>
+      <c r="H225" s="39"/>
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
       <c r="K225" s="20" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C226" s="13"/>
       <c r="D226" s="39"/>
@@ -8429,38 +8463,38 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H226" s="39"/>
+      <c r="H226" s="39">
+        <v>2</v>
+      </c>
       <c r="I226" s="9"/>
       <c r="J226" s="11"/>
       <c r="K226" s="20" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="40"/>
-      <c r="B227" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C227" s="13"/>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B227" s="20"/>
+      <c r="C227" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D227" s="39"/>
       <c r="E227" s="9"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H227" s="39">
-        <v>2</v>
-      </c>
+      <c r="G227" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H227" s="39"/>
       <c r="I227" s="9"/>
       <c r="J227" s="11"/>
-      <c r="K227" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K227" s="20"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="13">
@@ -8478,11 +8512,13 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B229" s="20"/>
+        <v>44743</v>
+      </c>
+      <c r="B229" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C229" s="13">
         <v>1.25</v>
       </c>
@@ -8493,17 +8529,21 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H229" s="39"/>
+      <c r="H229" s="39">
+        <v>4</v>
+      </c>
       <c r="I229" s="9"/>
       <c r="J229" s="11"/>
-      <c r="K229" s="20"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K229" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C230" s="13">
         <v>1.25</v>
@@ -8516,7 +8556,7 @@
         <v>1.25</v>
       </c>
       <c r="H230" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I230" s="9"/>
       <c r="J230" s="11"/>
@@ -8524,12 +8564,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C231" s="13">
         <v>1.25</v>
@@ -8542,19 +8582,21 @@
         <v>1.25</v>
       </c>
       <c r="H231" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" s="9"/>
       <c r="J231" s="11"/>
-      <c r="K231" s="20" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K231" s="48">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
-        <v>44805</v>
-      </c>
-      <c r="B232" s="20"/>
+        <v>44835</v>
+      </c>
+      <c r="B232" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C232" s="13">
         <v>1.25</v>
       </c>
@@ -8565,16 +8607,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H232" s="39"/>
+      <c r="H232" s="39">
+        <v>3</v>
+      </c>
       <c r="I232" s="9"/>
       <c r="J232" s="11"/>
-      <c r="K232" s="20"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K232" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B233" s="20"/>
+        <v>44866</v>
+      </c>
+      <c r="B233" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C233" s="13">
         <v>1.25</v>
       </c>
@@ -8585,20 +8633,28 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H233" s="39"/>
+      <c r="H233" s="39">
+        <v>1</v>
+      </c>
       <c r="I233" s="9"/>
       <c r="J233" s="11"/>
-      <c r="K233" s="20"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K233" s="48">
+        <v>44869</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B234" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B234" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="C234" s="13">
         <v>1.25</v>
       </c>
-      <c r="D234" s="39"/>
+      <c r="D234" s="39">
+        <v>5</v>
+      </c>
       <c r="E234" s="9"/>
       <c r="F234" s="20"/>
       <c r="G234" s="41">
@@ -8610,25 +8666,351 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="40">
-        <v>44896</v>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="47" t="s">
+        <v>199</v>
       </c>
       <c r="B235" s="20"/>
-      <c r="C235" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C235" s="13"/>
       <c r="D235" s="39"/>
       <c r="E235" s="9"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G235" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H235" s="39"/>
       <c r="I235" s="9"/>
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B236" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C236" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D236" s="39"/>
+      <c r="E236" s="9"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H236" s="39">
+        <v>1</v>
+      </c>
+      <c r="I236" s="9"/>
+      <c r="J236" s="11"/>
+      <c r="K236" s="48">
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="40"/>
+      <c r="B237" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C237" s="13"/>
+      <c r="D237" s="39"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H237" s="39">
+        <v>2</v>
+      </c>
+      <c r="I237" s="9"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="40"/>
+      <c r="B238" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C238" s="13"/>
+      <c r="D238" s="39"/>
+      <c r="E238" s="9"/>
+      <c r="F238" s="20"/>
+      <c r="G238" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H238" s="39">
+        <v>3</v>
+      </c>
+      <c r="I238" s="9"/>
+      <c r="J238" s="11"/>
+      <c r="K238" s="48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B239" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C239" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D239" s="39"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H239" s="39">
+        <v>1</v>
+      </c>
+      <c r="I239" s="9"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="48">
+        <v>44967</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B240" s="20"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="39"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="20"/>
+      <c r="G240" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H240" s="39"/>
+      <c r="I240" s="9"/>
+      <c r="J240" s="11"/>
+      <c r="K240" s="20"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B241" s="20"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="39"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="20"/>
+      <c r="G241" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H241" s="39"/>
+      <c r="I241" s="9"/>
+      <c r="J241" s="11"/>
+      <c r="K241" s="20"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B242" s="20"/>
+      <c r="C242" s="13"/>
+      <c r="D242" s="39"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H242" s="39"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="20"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B243" s="20"/>
+      <c r="C243" s="13"/>
+      <c r="D243" s="39"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="20"/>
+      <c r="G243" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H243" s="39"/>
+      <c r="I243" s="9"/>
+      <c r="J243" s="11"/>
+      <c r="K243" s="20"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A244" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B244" s="20"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="39"/>
+      <c r="E244" s="9"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H244" s="39"/>
+      <c r="I244" s="9"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="20"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B245" s="20"/>
+      <c r="C245" s="13"/>
+      <c r="D245" s="39"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="20"/>
+      <c r="G245" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H245" s="39"/>
+      <c r="I245" s="9"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="20"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B246" s="20"/>
+      <c r="C246" s="13"/>
+      <c r="D246" s="39"/>
+      <c r="E246" s="9"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H246" s="39"/>
+      <c r="I246" s="9"/>
+      <c r="J246" s="11"/>
+      <c r="K246" s="20"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B247" s="20"/>
+      <c r="C247" s="13"/>
+      <c r="D247" s="39"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H247" s="39"/>
+      <c r="I247" s="9"/>
+      <c r="J247" s="11"/>
+      <c r="K247" s="20"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B248" s="20"/>
+      <c r="C248" s="13"/>
+      <c r="D248" s="39"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H248" s="39"/>
+      <c r="I248" s="9"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="20"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A249" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B249" s="20"/>
+      <c r="C249" s="13"/>
+      <c r="D249" s="39"/>
+      <c r="E249" s="9"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H249" s="39"/>
+      <c r="I249" s="9"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="20"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A250" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B250" s="20"/>
+      <c r="C250" s="13"/>
+      <c r="D250" s="39"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H250" s="39"/>
+      <c r="I250" s="9"/>
+      <c r="J250" s="11"/>
+      <c r="K250" s="20"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B251" s="20"/>
+      <c r="C251" s="13"/>
+      <c r="D251" s="39"/>
+      <c r="E251" s="9"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H251" s="39"/>
+      <c r="I251" s="9"/>
+      <c r="J251" s="11"/>
+      <c r="K251" s="20"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252" s="61"/>
+      <c r="B252" s="15"/>
+      <c r="C252" s="41"/>
+      <c r="D252" s="42"/>
+      <c r="E252" s="9"/>
+      <c r="F252" s="15"/>
+      <c r="G252" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H252" s="42"/>
+      <c r="I252" s="9"/>
+      <c r="J252" s="12"/>
+      <c r="K252" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8645,10 +9027,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8671,29 +9053,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -8706,7 +9088,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8735,21 +9117,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>1.417</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -8761,17 +9143,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8792,7 +9174,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8819,7 +9201,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8845,7 +9227,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8871,7 +9253,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8897,7 +9279,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8923,7 +9305,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8949,7 +9331,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8975,7 +9357,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9001,7 +9383,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9021,7 +9403,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9041,7 +9423,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9061,7 +9443,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9082,7 +9464,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9103,7 +9485,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9124,7 +9506,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9145,7 +9527,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9166,7 +9548,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9187,7 +9569,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9208,7 +9590,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9229,7 +9611,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9250,7 +9632,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9271,7 +9653,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9292,7 +9674,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9313,7 +9695,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9334,7 +9716,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9355,7 +9737,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9376,7 +9758,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9397,7 +9779,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9418,7 +9800,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9439,7 +9821,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9460,7 +9842,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9481,7 +9863,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9490,7 +9872,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9499,7 +9881,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9508,7 +9890,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9517,7 +9899,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9526,7 +9908,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9535,7 +9917,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9544,7 +9926,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9553,7 +9935,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9562,7 +9944,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9571,7 +9953,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9580,7 +9962,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9589,7 +9971,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9598,7 +9980,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9607,7 +9989,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9616,7 +9998,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9625,7 +10007,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9634,7 +10016,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9643,7 +10025,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9652,7 +10034,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9661,7 +10043,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9670,7 +10052,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9679,7 +10061,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9688,7 +10070,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9697,7 +10079,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9706,7 +10088,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9715,7 +10097,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9724,7 +10106,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9733,7 +10115,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9742,7 +10124,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/OJT/NEW DONE/AUDITOR, AILEEN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC1A070-DD3A-458E-A56A-994B7DEC434E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7318F9-954E-4DE3-A5D8-3923C645502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="208">
   <si>
     <t>PERIOD</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>1/3,4,5/2023</t>
+  </si>
+  <si>
+    <t>4/4,5/2023</t>
   </si>
 </sst>
 </file>
@@ -1034,6 +1037,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,9 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3056,8 +3059,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K252" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K252" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K254" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3435,12 +3437,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K252"/>
+  <dimension ref="A2:K254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3564" topLeftCell="A229" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K240" sqref="K240"/>
+      <pane ySplit="3672" topLeftCell="A232" activePane="bottomLeft"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
+      <selection pane="bottomLeft" activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3462,66 +3464,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="57"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3547,18 +3549,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3605,7 +3607,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.7630000000000337</v>
+        <v>3.0130000000000337</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3615,7 +3617,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55.25</v>
+        <v>51.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8781,10 +8783,10 @@
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A240" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B240" s="20"/>
+      <c r="A240" s="40"/>
+      <c r="B240" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C240" s="13"/>
       <c r="D240" s="39"/>
       <c r="E240" s="9"/>
@@ -8793,16 +8795,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H240" s="39"/>
+      <c r="H240" s="39">
+        <v>1</v>
+      </c>
       <c r="I240" s="9"/>
       <c r="J240" s="11"/>
-      <c r="K240" s="20"/>
+      <c r="K240" s="48">
+        <v>44970</v>
+      </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A241" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B241" s="20"/>
+      <c r="A241" s="40"/>
+      <c r="B241" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C241" s="13"/>
       <c r="D241" s="39"/>
       <c r="E241" s="9"/>
@@ -8811,34 +8817,48 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H241" s="39"/>
+      <c r="H241" s="39">
+        <v>1</v>
+      </c>
       <c r="I241" s="9"/>
       <c r="J241" s="11"/>
-      <c r="K241" s="20"/>
+      <c r="K241" s="48">
+        <v>44974</v>
+      </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B242" s="20"/>
-      <c r="C242" s="13"/>
+        <v>44986</v>
+      </c>
+      <c r="B242" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C242" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D242" s="39"/>
       <c r="E242" s="9"/>
       <c r="F242" s="20"/>
-      <c r="G242" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H242" s="39"/>
+      <c r="G242" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H242" s="39">
+        <v>1</v>
+      </c>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="20"/>
+      <c r="K242" s="48">
+        <v>45012</v>
+      </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B243" s="20"/>
+        <v>45017</v>
+      </c>
+      <c r="B243" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C243" s="13"/>
       <c r="D243" s="39"/>
       <c r="E243" s="9"/>
@@ -8847,14 +8867,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H243" s="39"/>
+      <c r="H243" s="39">
+        <v>2</v>
+      </c>
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
-      <c r="K243" s="20"/>
+      <c r="K243" s="20" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
-        <v>45108</v>
+        <v>45047</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -8872,7 +8896,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -8890,7 +8914,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -8908,7 +8932,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -8926,7 +8950,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -8944,7 +8968,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -8962,7 +8986,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -8980,7 +9004,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -8997,20 +9021,56 @@
       <c r="K251" s="20"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A252" s="61"/>
-      <c r="B252" s="15"/>
-      <c r="C252" s="41"/>
-      <c r="D252" s="42"/>
+      <c r="A252" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B252" s="20"/>
+      <c r="C252" s="13"/>
+      <c r="D252" s="39"/>
       <c r="E252" s="9"/>
-      <c r="F252" s="15"/>
-      <c r="G252" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H252" s="42"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H252" s="39"/>
       <c r="I252" s="9"/>
-      <c r="J252" s="12"/>
-      <c r="K252" s="15"/>
+      <c r="J252" s="11"/>
+      <c r="K252" s="20"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B253" s="20"/>
+      <c r="C253" s="13"/>
+      <c r="D253" s="39"/>
+      <c r="E253" s="9"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H253" s="39"/>
+      <c r="I253" s="9"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="20"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="49"/>
+      <c r="B254" s="15"/>
+      <c r="C254" s="41"/>
+      <c r="D254" s="42"/>
+      <c r="E254" s="9"/>
+      <c r="F254" s="15"/>
+      <c r="G254" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H254" s="42"/>
+      <c r="I254" s="9"/>
+      <c r="J254" s="12"/>
+      <c r="K254" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9076,17 +9136,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -9167,12 +9227,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/OJT/NEW DONE/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/OJT/NEW DONE/AUDITOR, AILEEN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7318F9-954E-4DE3-A5D8-3923C645502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="208">
   <si>
     <t>PERIOD</t>
   </si>
@@ -664,7 +663,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1524,7 +1523,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1566,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1630,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1691,7 +1690,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1756,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1819,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1918,7 +1917,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1977,7 +1976,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2041,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,7 +2084,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2160,7 +2159,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2345,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,7 +2411,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2469,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2536,7 +2535,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2592,7 +2591,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2667,7 +2666,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2710,7 +2709,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2776,7 +2775,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +2831,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +2929,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +2992,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3059,25 +3058,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K254" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K254" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3089,13 +3088,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3104,14 +3103,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3415,7 +3414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3425,7 +3424,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3433,34 +3432,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3672" topLeftCell="A232" activePane="bottomLeft"/>
+      <pane ySplit="3675" topLeftCell="A232" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="B241" sqref="B241"/>
+      <selection pane="bottomLeft" activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3483,7 +3482,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3503,7 +3502,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3525,7 +3524,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3533,7 +3532,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3546,7 +3545,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3563,7 +3562,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3598,7 +3597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3607,7 +3606,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>3.0130000000000337</v>
+        <v>4.2630000000000337</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3617,12 +3616,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51.5</v>
+        <v>51.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3644,7 +3643,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>40756</v>
       </c>
@@ -3668,7 +3667,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>40787</v>
       </c>
@@ -3692,7 +3691,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>40817</v>
       </c>
@@ -3716,7 +3715,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>40848</v>
       </c>
@@ -3740,7 +3739,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>60</v>
@@ -3762,7 +3761,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>40878</v>
       </c>
@@ -3788,7 +3787,7 @@
         <v>40891</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>44</v>
       </c>
@@ -3810,7 +3809,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>40909</v>
       </c>
@@ -3834,7 +3833,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>40940</v>
       </c>
@@ -3856,7 +3855,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>63</v>
@@ -3876,7 +3875,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>40969</v>
       </c>
@@ -3900,7 +3899,7 @@
         <v>41001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>64</v>
@@ -3920,7 +3919,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>41000</v>
       </c>
@@ -3944,7 +3943,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>41030</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>67</v>
@@ -3990,7 +3989,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>41061</v>
       </c>
@@ -4014,7 +4013,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>71</v>
@@ -4036,7 +4035,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>41091</v>
       </c>
@@ -4060,7 +4059,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>41122</v>
       </c>
@@ -4086,7 +4085,7 @@
         <v>41127</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>60</v>
@@ -4108,7 +4107,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>73</v>
@@ -4128,7 +4127,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>41153</v>
       </c>
@@ -4154,7 +4153,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>60</v>
@@ -4176,7 +4175,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>62</v>
@@ -4196,7 +4195,7 @@
         <v>41179</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>74</v>
@@ -4216,7 +4215,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>41183</v>
       </c>
@@ -4242,7 +4241,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>60</v>
@@ -4264,7 +4263,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>75</v>
@@ -4284,7 +4283,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>76</v>
@@ -4304,7 +4303,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>41214</v>
       </c>
@@ -4328,7 +4327,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>41244</v>
       </c>
@@ -4354,7 +4353,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>80</v>
@@ -4376,7 +4375,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>81</v>
@@ -4396,7 +4395,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>47</v>
       </c>
@@ -4414,7 +4413,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>41275</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>83</v>
@@ -4464,7 +4463,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>84</v>
@@ -4484,7 +4483,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>41306</v>
       </c>
@@ -4512,7 +4511,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>62</v>
@@ -4532,7 +4531,7 @@
         <v>41333</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>86</v>
@@ -4552,7 +4551,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>41334</v>
       </c>
@@ -4576,7 +4575,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>41365</v>
       </c>
@@ -4600,7 +4599,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>85</v>
@@ -4622,7 +4621,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>41395</v>
       </c>
@@ -4648,7 +4647,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>89</v>
@@ -4668,7 +4667,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>60</v>
@@ -4690,7 +4689,7 @@
         <v>41408</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>41426</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>90</v>
@@ -4736,7 +4735,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>41456</v>
       </c>
@@ -4762,7 +4761,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>98</v>
@@ -4782,7 +4781,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>41487</v>
       </c>
@@ -4808,7 +4807,7 @@
         <v>41514</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>99</v>
@@ -4828,7 +4827,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>41518</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>100</v>
@@ -4874,7 +4873,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>101</v>
@@ -4894,7 +4893,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>41548</v>
       </c>
@@ -4920,7 +4919,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>62</v>
@@ -4940,7 +4939,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>102</v>
@@ -4960,7 +4959,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>41579</v>
       </c>
@@ -4984,7 +4983,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>41609</v>
       </c>
@@ -5008,7 +5007,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
         <v>56</v>
       </c>
@@ -5026,7 +5025,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>41640</v>
       </c>
@@ -5052,7 +5051,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>96</v>
@@ -5074,7 +5073,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>104</v>
@@ -5098,7 +5097,7 @@
         <v>41667</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>105</v>
@@ -5118,7 +5117,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>85</v>
@@ -5140,7 +5139,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>41671</v>
       </c>
@@ -5170,7 +5169,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>106</v>
@@ -5190,7 +5189,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>41699</v>
       </c>
@@ -5214,7 +5213,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>41730</v>
       </c>
@@ -5240,7 +5239,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>108</v>
@@ -5260,7 +5259,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>85</v>
@@ -5282,7 +5281,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>41760</v>
       </c>
@@ -5306,7 +5305,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>82</v>
@@ -5330,7 +5329,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>119</v>
@@ -5350,7 +5349,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>41791</v>
       </c>
@@ -5376,7 +5375,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>120</v>
@@ -5393,7 +5392,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="48"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>121</v>
@@ -5410,7 +5409,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>41821</v>
       </c>
@@ -5434,7 +5433,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>41852</v>
       </c>
@@ -5458,7 +5457,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>41883</v>
       </c>
@@ -5482,7 +5481,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>125</v>
@@ -5502,7 +5501,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>41913</v>
       </c>
@@ -5526,7 +5525,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>41944</v>
       </c>
@@ -5550,7 +5549,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>128</v>
@@ -5572,7 +5571,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>41974</v>
       </c>
@@ -5596,7 +5595,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>131</v>
@@ -5618,7 +5617,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="47" t="s">
         <v>55</v>
       </c>
@@ -5638,7 +5637,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>42005</v>
       </c>
@@ -5662,7 +5661,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>134</v>
@@ -5684,7 +5683,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>136</v>
@@ -5706,7 +5705,7 @@
         <v>42032</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>85</v>
@@ -5728,7 +5727,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40" t="s">
         <v>139</v>
       </c>
@@ -5752,7 +5751,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>140</v>
@@ -5774,7 +5773,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>142</v>
@@ -5794,7 +5793,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>42064</v>
       </c>
@@ -5816,7 +5815,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>131</v>
@@ -5838,7 +5837,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>42095</v>
       </c>
@@ -5862,7 +5861,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>147</v>
@@ -5884,7 +5883,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>42125</v>
       </c>
@@ -5908,7 +5907,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>149</v>
@@ -5930,7 +5929,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>42156</v>
       </c>
@@ -5954,7 +5953,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>151</v>
@@ -5976,7 +5975,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>42186</v>
       </c>
@@ -6000,7 +5999,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>154</v>
@@ -6022,7 +6021,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>60</v>
@@ -6044,7 +6043,7 @@
         <v>42199</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>42217</v>
       </c>
@@ -6068,7 +6067,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>140</v>
@@ -6090,7 +6089,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>157</v>
@@ -6112,7 +6111,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>42248</v>
       </c>
@@ -6136,7 +6135,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>151</v>
@@ -6158,7 +6157,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>42278</v>
       </c>
@@ -6182,7 +6181,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>140</v>
@@ -6204,7 +6203,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>42309</v>
       </c>
@@ -6228,7 +6227,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>42339</v>
       </c>
@@ -6252,7 +6251,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>131</v>
@@ -6274,7 +6273,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>54</v>
       </c>
@@ -6294,7 +6293,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>42370</v>
       </c>
@@ -6314,7 +6313,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>42401</v>
       </c>
@@ -6334,7 +6333,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>42430</v>
       </c>
@@ -6354,7 +6353,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>42461</v>
       </c>
@@ -6374,7 +6373,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>42491</v>
       </c>
@@ -6394,7 +6393,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>42522</v>
       </c>
@@ -6414,7 +6413,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>42552</v>
       </c>
@@ -6434,7 +6433,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>42583</v>
       </c>
@@ -6454,7 +6453,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>42614</v>
       </c>
@@ -6474,7 +6473,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>42644</v>
       </c>
@@ -6494,7 +6493,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>42675</v>
       </c>
@@ -6514,7 +6513,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>42705</v>
       </c>
@@ -6538,7 +6537,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>53</v>
       </c>
@@ -6560,7 +6559,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>42736</v>
       </c>
@@ -6586,7 +6585,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>42767</v>
       </c>
@@ -6606,7 +6605,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>42795</v>
       </c>
@@ -6626,7 +6625,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>42826</v>
       </c>
@@ -6646,7 +6645,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>42856</v>
       </c>
@@ -6666,7 +6665,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>42887</v>
       </c>
@@ -6686,7 +6685,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>42917</v>
       </c>
@@ -6706,7 +6705,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>42948</v>
       </c>
@@ -6726,7 +6725,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>42979</v>
       </c>
@@ -6746,7 +6745,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>43009</v>
       </c>
@@ -6766,7 +6765,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>43040</v>
       </c>
@@ -6786,7 +6785,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>43070</v>
       </c>
@@ -6810,7 +6809,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>52</v>
       </c>
@@ -6832,7 +6831,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>43101</v>
       </c>
@@ -6858,7 +6857,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>43132</v>
       </c>
@@ -6884,7 +6883,7 @@
         <v>43146</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>43160</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>43191</v>
       </c>
@@ -6936,7 +6935,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>43221</v>
       </c>
@@ -6962,7 +6961,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>43252</v>
       </c>
@@ -6982,7 +6981,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>43282</v>
       </c>
@@ -7002,7 +7001,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>43313</v>
       </c>
@@ -7028,7 +7027,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>43344</v>
       </c>
@@ -7054,7 +7053,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>43374</v>
       </c>
@@ -7080,7 +7079,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>85</v>
@@ -7102,7 +7101,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>43405</v>
       </c>
@@ -7122,7 +7121,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>43435</v>
       </c>
@@ -7146,7 +7145,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>60</v>
@@ -7168,7 +7167,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="47" t="s">
         <v>51</v>
       </c>
@@ -7190,7 +7189,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>43466</v>
       </c>
@@ -7216,7 +7215,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>60</v>
@@ -7238,7 +7237,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>100</v>
@@ -7260,7 +7259,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>43497</v>
       </c>
@@ -7286,7 +7285,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>43525</v>
       </c>
@@ -7312,7 +7311,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>60</v>
@@ -7334,7 +7333,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>60</v>
@@ -7356,7 +7355,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>43556</v>
       </c>
@@ -7382,7 +7381,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>60</v>
@@ -7404,7 +7403,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>43586</v>
       </c>
@@ -7424,7 +7423,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>43617</v>
       </c>
@@ -7444,7 +7443,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>43647</v>
       </c>
@@ -7470,7 +7469,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>43678</v>
       </c>
@@ -7496,7 +7495,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>43709</v>
       </c>
@@ -7522,7 +7521,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>85</v>
@@ -7544,7 +7543,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>71</v>
@@ -7566,7 +7565,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>43739</v>
       </c>
@@ -7586,7 +7585,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>43770</v>
       </c>
@@ -7612,7 +7611,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>62</v>
@@ -7632,7 +7631,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>85</v>
@@ -7654,7 +7653,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>43800</v>
       </c>
@@ -7678,7 +7677,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="47" t="s">
         <v>50</v>
       </c>
@@ -7700,7 +7699,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>43831</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>43862</v>
       </c>
@@ -7744,7 +7743,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>43891</v>
       </c>
@@ -7764,7 +7763,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>43922</v>
       </c>
@@ -7784,7 +7783,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>43952</v>
       </c>
@@ -7804,7 +7803,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>43983</v>
       </c>
@@ -7830,7 +7829,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>60</v>
@@ -7852,7 +7851,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>44013</v>
       </c>
@@ -7878,7 +7877,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>85</v>
@@ -7900,7 +7899,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>44044</v>
       </c>
@@ -7926,7 +7925,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>44075</v>
       </c>
@@ -7952,7 +7951,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>44105</v>
       </c>
@@ -7972,7 +7971,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>44136</v>
       </c>
@@ -7992,7 +7991,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>44166</v>
       </c>
@@ -8016,7 +8015,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="47" t="s">
         <v>49</v>
       </c>
@@ -8038,7 +8037,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>44197</v>
       </c>
@@ -8058,7 +8057,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>44228</v>
       </c>
@@ -8078,7 +8077,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>44256</v>
       </c>
@@ -8098,7 +8097,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>44287</v>
       </c>
@@ -8118,7 +8117,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>44317</v>
       </c>
@@ -8138,7 +8137,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>44348</v>
       </c>
@@ -8158,7 +8157,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>44378</v>
       </c>
@@ -8178,7 +8177,7 @@
       <c r="J212" s="12"/>
       <c r="K212" s="15"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>44409</v>
       </c>
@@ -8198,7 +8197,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>44440</v>
       </c>
@@ -8218,7 +8217,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>44470</v>
       </c>
@@ -8238,7 +8237,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>44501</v>
       </c>
@@ -8258,7 +8257,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>44531</v>
       </c>
@@ -8282,7 +8281,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>166</v>
@@ -8302,7 +8301,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="47" t="s">
         <v>48</v>
       </c>
@@ -8324,7 +8323,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>44562</v>
       </c>
@@ -8344,7 +8343,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>44593</v>
       </c>
@@ -8364,7 +8363,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>44621</v>
       </c>
@@ -8384,7 +8383,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>44652</v>
       </c>
@@ -8410,7 +8409,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>85</v>
@@ -8432,7 +8431,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>62</v>
@@ -8452,7 +8451,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>85</v>
@@ -8474,7 +8473,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>44682</v>
       </c>
@@ -8494,7 +8493,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>44713</v>
       </c>
@@ -8514,7 +8513,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>44743</v>
       </c>
@@ -8540,7 +8539,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>44774</v>
       </c>
@@ -8566,7 +8565,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>44805</v>
       </c>
@@ -8592,7 +8591,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>44835</v>
       </c>
@@ -8618,7 +8617,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>44866</v>
       </c>
@@ -8644,7 +8643,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>44896</v>
       </c>
@@ -8668,7 +8667,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="47" t="s">
         <v>199</v>
       </c>
@@ -8686,7 +8685,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>44927</v>
       </c>
@@ -8712,7 +8711,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>85</v>
@@ -8734,7 +8733,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>71</v>
@@ -8756,7 +8755,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>44958</v>
       </c>
@@ -8782,7 +8781,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>60</v>
@@ -8804,7 +8803,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>60</v>
@@ -8826,7 +8825,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>44986</v>
       </c>
@@ -8852,20 +8851,22 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>45017</v>
       </c>
       <c r="B243" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C243" s="13"/>
+      <c r="C243" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D243" s="39"/>
       <c r="E243" s="9"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G243" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H243" s="39">
         <v>2</v>
@@ -8876,11 +8877,13 @@
         <v>207</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>45047</v>
       </c>
-      <c r="B244" s="20"/>
+      <c r="B244" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C244" s="13"/>
       <c r="D244" s="39"/>
       <c r="E244" s="9"/>
@@ -8889,12 +8892,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H244" s="39"/>
+      <c r="H244" s="39">
+        <v>1</v>
+      </c>
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
-      <c r="K244" s="20"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K244" s="48">
+        <v>45051</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>45078</v>
       </c>
@@ -8912,7 +8919,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>45108</v>
       </c>
@@ -8930,7 +8937,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>45139</v>
       </c>
@@ -8948,7 +8955,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>45170</v>
       </c>
@@ -8966,7 +8973,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>45200</v>
       </c>
@@ -8984,7 +8991,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>45231</v>
       </c>
@@ -9002,7 +9009,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>45261</v>
       </c>
@@ -9020,7 +9027,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>45292</v>
       </c>
@@ -9038,7 +9045,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>45323</v>
       </c>
@@ -9056,7 +9063,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="49"/>
       <c r="B254" s="15"/>
       <c r="C254" s="41"/>
@@ -9087,10 +9094,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9113,7 +9120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -9121,21 +9128,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -9148,7 +9155,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9177,7 +9184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -9203,17 +9210,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9234,7 +9241,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9261,7 +9268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9287,7 +9294,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9313,7 +9320,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9339,7 +9346,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9365,7 +9372,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9391,7 +9398,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9417,7 +9424,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9443,7 +9450,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9463,7 +9470,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9483,7 +9490,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9503,7 +9510,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9524,7 +9531,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9545,7 +9552,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9566,7 +9573,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9587,7 +9594,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9608,7 +9615,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9629,7 +9636,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9650,7 +9657,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9671,7 +9678,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9692,7 +9699,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9713,7 +9720,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9734,7 +9741,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9755,7 +9762,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9776,7 +9783,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9797,7 +9804,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9818,7 +9825,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9839,7 +9846,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9860,7 +9867,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9881,7 +9888,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9902,7 +9909,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9923,7 +9930,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9932,7 +9939,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9941,7 +9948,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9950,7 +9957,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9959,7 +9966,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9968,7 +9975,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9977,7 +9984,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9986,7 +9993,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9995,7 +10002,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10004,7 +10011,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10013,7 +10020,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10022,7 +10029,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10031,7 +10038,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10040,7 +10047,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10049,7 +10056,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10058,7 +10065,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10067,7 +10074,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10076,7 +10083,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10085,7 +10092,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10094,7 +10101,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10103,7 +10110,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10112,7 +10119,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10121,7 +10128,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10130,7 +10137,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10139,7 +10146,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10148,7 +10155,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10157,7 +10164,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10166,7 +10173,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10175,7 +10182,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10184,7 +10191,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/OJT/NEW DONE/AUDITOR, AILEEN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="208">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1523,7 +1523,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,7 +1566,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1630,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1690,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1756,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1819,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1917,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1976,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2041,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2084,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2159,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2345,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2411,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2469,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2535,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2591,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,7 +2666,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2709,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2775,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2831,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2929,7 +2929,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2992,7 +2992,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3058,7 +3058,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K254" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K255" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3436,12 +3436,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K254"/>
+  <dimension ref="A2:K255"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="3675" topLeftCell="A232" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="B245" sqref="B245"/>
+      <selection pane="bottomLeft" activeCell="B246" sqref="B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3616,7 +3616,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>51.75</v>
+        <v>50.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8902,10 +8902,10 @@
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B245" s="20"/>
+      <c r="A245" s="40"/>
+      <c r="B245" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C245" s="13"/>
       <c r="D245" s="39"/>
       <c r="E245" s="9"/>
@@ -8914,14 +8914,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H245" s="39"/>
+      <c r="H245" s="39">
+        <v>1</v>
+      </c>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="20"/>
+      <c r="K245" s="48">
+        <v>45061</v>
+      </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -8939,7 +8943,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -8957,7 +8961,7 @@
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -8975,7 +8979,7 @@
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -8993,7 +8997,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -9011,7 +9015,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -9029,7 +9033,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -9047,7 +9051,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -9064,20 +9068,38 @@
       <c r="K253" s="20"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="49"/>
-      <c r="B254" s="15"/>
-      <c r="C254" s="41"/>
-      <c r="D254" s="42"/>
+      <c r="A254" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B254" s="20"/>
+      <c r="C254" s="13"/>
+      <c r="D254" s="39"/>
       <c r="E254" s="9"/>
-      <c r="F254" s="15"/>
-      <c r="G254" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H254" s="42"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H254" s="39"/>
       <c r="I254" s="9"/>
-      <c r="J254" s="12"/>
-      <c r="K254" s="15"/>
+      <c r="J254" s="11"/>
+      <c r="K254" s="20"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" s="49"/>
+      <c r="B255" s="15"/>
+      <c r="C255" s="41"/>
+      <c r="D255" s="42"/>
+      <c r="E255" s="9"/>
+      <c r="F255" s="15"/>
+      <c r="G255" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H255" s="42"/>
+      <c r="I255" s="9"/>
+      <c r="J255" s="12"/>
+      <c r="K255" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/OJT/NEW DONE/AUDITOR, AILEEN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD3BF4C-2B64-4E23-8F3F-75C7ADB24555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="210">
   <si>
     <t>PERIOD</t>
   </si>
@@ -658,12 +659,18 @@
   </si>
   <si>
     <t>4/4,5/2023</t>
+  </si>
+  <si>
+    <t>5/22,23/2023</t>
+  </si>
+  <si>
+    <t>5/29,30/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1523,7 +1530,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,7 +1573,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1630,7 +1637,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1697,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1763,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1826,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,7 +1924,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1976,7 +1983,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2048,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2091,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2166,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2352,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2411,7 +2418,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2469,7 +2476,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2535,7 +2542,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2598,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,7 +2673,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2716,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2782,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2838,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2929,7 +2936,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2992,7 +2999,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3041,7 +3048,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3058,25 +3065,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K255" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K257" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3088,13 +3095,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3103,14 +3110,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3414,7 +3421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3424,7 +3431,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3432,34 +3439,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K255"/>
+  <dimension ref="A2:K257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3675" topLeftCell="A232" activePane="bottomLeft"/>
+      <pane ySplit="3672" topLeftCell="A235" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="B246" sqref="B246"/>
+      <selection pane="bottomLeft" activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3482,7 +3489,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3502,7 +3509,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3524,7 +3531,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3532,7 +3539,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3545,7 +3552,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3562,7 +3569,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3597,7 +3604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3606,7 +3613,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>4.2630000000000337</v>
+        <v>5.5130000000000337</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3616,12 +3623,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>50.75</v>
+        <v>47</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3643,7 +3650,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>40756</v>
       </c>
@@ -3667,7 +3674,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>40787</v>
       </c>
@@ -3691,7 +3698,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>40817</v>
       </c>
@@ -3715,7 +3722,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>40848</v>
       </c>
@@ -3739,7 +3746,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>60</v>
@@ -3761,7 +3768,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>40878</v>
       </c>
@@ -3787,7 +3794,7 @@
         <v>40891</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>44</v>
       </c>
@@ -3809,7 +3816,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>40909</v>
       </c>
@@ -3833,7 +3840,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>40940</v>
       </c>
@@ -3855,7 +3862,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>63</v>
@@ -3875,7 +3882,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>40969</v>
       </c>
@@ -3899,7 +3906,7 @@
         <v>41001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>64</v>
@@ -3919,7 +3926,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>41000</v>
       </c>
@@ -3943,7 +3950,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>41030</v>
       </c>
@@ -3969,7 +3976,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>67</v>
@@ -3989,7 +3996,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>41061</v>
       </c>
@@ -4013,7 +4020,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>71</v>
@@ -4035,7 +4042,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>41091</v>
       </c>
@@ -4059,7 +4066,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>41122</v>
       </c>
@@ -4085,7 +4092,7 @@
         <v>41127</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>60</v>
@@ -4107,7 +4114,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>73</v>
@@ -4127,7 +4134,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>41153</v>
       </c>
@@ -4153,7 +4160,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>60</v>
@@ -4175,7 +4182,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>62</v>
@@ -4195,7 +4202,7 @@
         <v>41179</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>74</v>
@@ -4215,7 +4222,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>41183</v>
       </c>
@@ -4241,7 +4248,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>60</v>
@@ -4263,7 +4270,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>75</v>
@@ -4283,7 +4290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>76</v>
@@ -4303,7 +4310,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>41214</v>
       </c>
@@ -4327,7 +4334,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>41244</v>
       </c>
@@ -4353,7 +4360,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>80</v>
@@ -4375,7 +4382,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>81</v>
@@ -4395,7 +4402,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>47</v>
       </c>
@@ -4413,7 +4420,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>41275</v>
       </c>
@@ -4441,7 +4448,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>83</v>
@@ -4463,7 +4470,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>84</v>
@@ -4483,7 +4490,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>41306</v>
       </c>
@@ -4511,7 +4518,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>62</v>
@@ -4531,7 +4538,7 @@
         <v>41333</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>86</v>
@@ -4551,7 +4558,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>41334</v>
       </c>
@@ -4575,7 +4582,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>41365</v>
       </c>
@@ -4599,7 +4606,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>85</v>
@@ -4621,7 +4628,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>41395</v>
       </c>
@@ -4647,7 +4654,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>89</v>
@@ -4667,7 +4674,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>60</v>
@@ -4689,7 +4696,7 @@
         <v>41408</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>41426</v>
       </c>
@@ -4715,7 +4722,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>90</v>
@@ -4735,7 +4742,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>41456</v>
       </c>
@@ -4761,7 +4768,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>98</v>
@@ -4781,7 +4788,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>41487</v>
       </c>
@@ -4807,7 +4814,7 @@
         <v>41514</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>99</v>
@@ -4827,7 +4834,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>41518</v>
       </c>
@@ -4853,7 +4860,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>100</v>
@@ -4873,7 +4880,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>101</v>
@@ -4893,7 +4900,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>41548</v>
       </c>
@@ -4919,7 +4926,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>62</v>
@@ -4939,7 +4946,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>102</v>
@@ -4959,7 +4966,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>41579</v>
       </c>
@@ -4983,7 +4990,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>41609</v>
       </c>
@@ -5007,7 +5014,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
         <v>56</v>
       </c>
@@ -5025,7 +5032,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>41640</v>
       </c>
@@ -5051,7 +5058,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>96</v>
@@ -5073,7 +5080,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>104</v>
@@ -5097,7 +5104,7 @@
         <v>41667</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>105</v>
@@ -5117,7 +5124,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>85</v>
@@ -5139,7 +5146,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>41671</v>
       </c>
@@ -5169,7 +5176,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>106</v>
@@ -5189,7 +5196,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>41699</v>
       </c>
@@ -5213,7 +5220,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>41730</v>
       </c>
@@ -5239,7 +5246,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>108</v>
@@ -5259,7 +5266,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>85</v>
@@ -5281,7 +5288,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>41760</v>
       </c>
@@ -5305,7 +5312,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>82</v>
@@ -5329,7 +5336,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>119</v>
@@ -5349,7 +5356,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>41791</v>
       </c>
@@ -5375,7 +5382,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>120</v>
@@ -5392,7 +5399,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="48"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>121</v>
@@ -5409,7 +5416,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>41821</v>
       </c>
@@ -5433,7 +5440,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>41852</v>
       </c>
@@ -5457,7 +5464,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>41883</v>
       </c>
@@ -5481,7 +5488,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>125</v>
@@ -5501,7 +5508,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>41913</v>
       </c>
@@ -5525,7 +5532,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>41944</v>
       </c>
@@ -5549,7 +5556,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>128</v>
@@ -5571,7 +5578,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>41974</v>
       </c>
@@ -5595,7 +5602,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>131</v>
@@ -5617,7 +5624,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="47" t="s">
         <v>55</v>
       </c>
@@ -5637,7 +5644,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>42005</v>
       </c>
@@ -5661,7 +5668,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>134</v>
@@ -5683,7 +5690,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>136</v>
@@ -5705,7 +5712,7 @@
         <v>42032</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>85</v>
@@ -5727,7 +5734,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40" t="s">
         <v>139</v>
       </c>
@@ -5751,7 +5758,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>140</v>
@@ -5773,7 +5780,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>142</v>
@@ -5793,7 +5800,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>42064</v>
       </c>
@@ -5815,7 +5822,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>131</v>
@@ -5837,7 +5844,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>42095</v>
       </c>
@@ -5861,7 +5868,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>147</v>
@@ -5883,7 +5890,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>42125</v>
       </c>
@@ -5907,7 +5914,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>149</v>
@@ -5929,7 +5936,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>42156</v>
       </c>
@@ -5953,7 +5960,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>151</v>
@@ -5975,7 +5982,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>42186</v>
       </c>
@@ -5999,7 +6006,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>154</v>
@@ -6021,7 +6028,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>60</v>
@@ -6043,7 +6050,7 @@
         <v>42199</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>42217</v>
       </c>
@@ -6067,7 +6074,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>140</v>
@@ -6089,7 +6096,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>157</v>
@@ -6111,7 +6118,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>42248</v>
       </c>
@@ -6135,7 +6142,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>151</v>
@@ -6157,7 +6164,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>42278</v>
       </c>
@@ -6181,7 +6188,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>140</v>
@@ -6203,7 +6210,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>42309</v>
       </c>
@@ -6227,7 +6234,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>42339</v>
       </c>
@@ -6251,7 +6258,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>131</v>
@@ -6273,7 +6280,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="47" t="s">
         <v>54</v>
       </c>
@@ -6293,7 +6300,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>42370</v>
       </c>
@@ -6313,7 +6320,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>42401</v>
       </c>
@@ -6333,7 +6340,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>42430</v>
       </c>
@@ -6353,7 +6360,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>42461</v>
       </c>
@@ -6373,7 +6380,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>42491</v>
       </c>
@@ -6393,7 +6400,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>42522</v>
       </c>
@@ -6413,7 +6420,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>42552</v>
       </c>
@@ -6433,7 +6440,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>42583</v>
       </c>
@@ -6453,7 +6460,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>42614</v>
       </c>
@@ -6473,7 +6480,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>42644</v>
       </c>
@@ -6493,7 +6500,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>42675</v>
       </c>
@@ -6513,7 +6520,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>42705</v>
       </c>
@@ -6537,7 +6544,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="47" t="s">
         <v>53</v>
       </c>
@@ -6559,7 +6566,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>42736</v>
       </c>
@@ -6585,7 +6592,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>42767</v>
       </c>
@@ -6605,7 +6612,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>42795</v>
       </c>
@@ -6625,7 +6632,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>42826</v>
       </c>
@@ -6645,7 +6652,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>42856</v>
       </c>
@@ -6665,7 +6672,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>42887</v>
       </c>
@@ -6685,7 +6692,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>42917</v>
       </c>
@@ -6705,7 +6712,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>42948</v>
       </c>
@@ -6725,7 +6732,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>42979</v>
       </c>
@@ -6745,7 +6752,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>43009</v>
       </c>
@@ -6765,7 +6772,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>43040</v>
       </c>
@@ -6785,7 +6792,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>43070</v>
       </c>
@@ -6809,7 +6816,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="47" t="s">
         <v>52</v>
       </c>
@@ -6831,7 +6838,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>43101</v>
       </c>
@@ -6857,7 +6864,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>43132</v>
       </c>
@@ -6883,7 +6890,7 @@
         <v>43146</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>43160</v>
       </c>
@@ -6909,7 +6916,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>43191</v>
       </c>
@@ -6935,7 +6942,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>43221</v>
       </c>
@@ -6961,7 +6968,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>43252</v>
       </c>
@@ -6981,7 +6988,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>43282</v>
       </c>
@@ -7001,7 +7008,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>43313</v>
       </c>
@@ -7027,7 +7034,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>43344</v>
       </c>
@@ -7053,7 +7060,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>43374</v>
       </c>
@@ -7079,7 +7086,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>85</v>
@@ -7101,7 +7108,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>43405</v>
       </c>
@@ -7121,7 +7128,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>43435</v>
       </c>
@@ -7145,7 +7152,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>60</v>
@@ -7167,7 +7174,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="47" t="s">
         <v>51</v>
       </c>
@@ -7189,7 +7196,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>43466</v>
       </c>
@@ -7215,7 +7222,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>60</v>
@@ -7237,7 +7244,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>100</v>
@@ -7259,7 +7266,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>43497</v>
       </c>
@@ -7285,7 +7292,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>43525</v>
       </c>
@@ -7311,7 +7318,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>60</v>
@@ -7333,7 +7340,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>60</v>
@@ -7355,7 +7362,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>43556</v>
       </c>
@@ -7381,7 +7388,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>60</v>
@@ -7403,7 +7410,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>43586</v>
       </c>
@@ -7423,7 +7430,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>43617</v>
       </c>
@@ -7443,7 +7450,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>43647</v>
       </c>
@@ -7469,7 +7476,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>43678</v>
       </c>
@@ -7495,7 +7502,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>43709</v>
       </c>
@@ -7521,7 +7528,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>85</v>
@@ -7543,7 +7550,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>71</v>
@@ -7565,7 +7572,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>43739</v>
       </c>
@@ -7585,7 +7592,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>43770</v>
       </c>
@@ -7611,7 +7618,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>62</v>
@@ -7631,7 +7638,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>85</v>
@@ -7653,7 +7660,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>43800</v>
       </c>
@@ -7677,7 +7684,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="47" t="s">
         <v>50</v>
       </c>
@@ -7699,7 +7706,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>43831</v>
       </c>
@@ -7723,7 +7730,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>43862</v>
       </c>
@@ -7743,7 +7750,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>43891</v>
       </c>
@@ -7763,7 +7770,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>43922</v>
       </c>
@@ -7783,7 +7790,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>43952</v>
       </c>
@@ -7803,7 +7810,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>43983</v>
       </c>
@@ -7829,7 +7836,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>60</v>
@@ -7851,7 +7858,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>44013</v>
       </c>
@@ -7877,7 +7884,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>85</v>
@@ -7899,7 +7906,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>44044</v>
       </c>
@@ -7925,7 +7932,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>44075</v>
       </c>
@@ -7951,7 +7958,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>44105</v>
       </c>
@@ -7971,7 +7978,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>44136</v>
       </c>
@@ -7991,7 +7998,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>44166</v>
       </c>
@@ -8015,7 +8022,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="47" t="s">
         <v>49</v>
       </c>
@@ -8037,7 +8044,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>44197</v>
       </c>
@@ -8057,7 +8064,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>44228</v>
       </c>
@@ -8077,7 +8084,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>44256</v>
       </c>
@@ -8097,7 +8104,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>44287</v>
       </c>
@@ -8117,7 +8124,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>44317</v>
       </c>
@@ -8137,7 +8144,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>44348</v>
       </c>
@@ -8157,7 +8164,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>44378</v>
       </c>
@@ -8177,7 +8184,7 @@
       <c r="J212" s="12"/>
       <c r="K212" s="15"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>44409</v>
       </c>
@@ -8197,7 +8204,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>44440</v>
       </c>
@@ -8217,7 +8224,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>44470</v>
       </c>
@@ -8237,7 +8244,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>44501</v>
       </c>
@@ -8257,7 +8264,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>44531</v>
       </c>
@@ -8281,7 +8288,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>166</v>
@@ -8301,7 +8308,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="47" t="s">
         <v>48</v>
       </c>
@@ -8323,7 +8330,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>44562</v>
       </c>
@@ -8343,7 +8350,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>44593</v>
       </c>
@@ -8363,7 +8370,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>44621</v>
       </c>
@@ -8383,7 +8390,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>44652</v>
       </c>
@@ -8409,7 +8416,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>85</v>
@@ -8431,7 +8438,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>62</v>
@@ -8451,7 +8458,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>85</v>
@@ -8473,7 +8480,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>44682</v>
       </c>
@@ -8493,7 +8500,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>44713</v>
       </c>
@@ -8513,7 +8520,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>44743</v>
       </c>
@@ -8539,7 +8546,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>44774</v>
       </c>
@@ -8565,7 +8572,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>44805</v>
       </c>
@@ -8591,7 +8598,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>44835</v>
       </c>
@@ -8617,7 +8624,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>44866</v>
       </c>
@@ -8643,7 +8650,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>44896</v>
       </c>
@@ -8667,7 +8674,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="47" t="s">
         <v>199</v>
       </c>
@@ -8685,7 +8692,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>44927</v>
       </c>
@@ -8711,7 +8718,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>85</v>
@@ -8733,7 +8740,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>71</v>
@@ -8755,7 +8762,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>44958</v>
       </c>
@@ -8781,7 +8788,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>60</v>
@@ -8803,7 +8810,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>60</v>
@@ -8825,7 +8832,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>44986</v>
       </c>
@@ -8851,7 +8858,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>45017</v>
       </c>
@@ -8877,20 +8884,22 @@
         <v>207</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <v>45047</v>
       </c>
       <c r="B244" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C244" s="13"/>
+      <c r="C244" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D244" s="39"/>
       <c r="E244" s="9"/>
       <c r="F244" s="20"/>
-      <c r="G244" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G244" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H244" s="39">
         <v>1</v>
@@ -8901,7 +8910,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>60</v>
@@ -8923,11 +8932,11 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B246" s="20"/>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="40"/>
+      <c r="B246" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C246" s="13"/>
       <c r="D246" s="39"/>
       <c r="E246" s="9"/>
@@ -8936,16 +8945,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H246" s="39"/>
+      <c r="H246" s="39">
+        <v>2</v>
+      </c>
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
-      <c r="K246" s="20"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K246" s="48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B247" s="20"/>
+        <v>45078</v>
+      </c>
+      <c r="B247" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C247" s="13"/>
       <c r="D247" s="39"/>
       <c r="E247" s="9"/>
@@ -8954,16 +8969,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H247" s="39"/>
+      <c r="H247" s="39">
+        <v>2</v>
+      </c>
       <c r="I247" s="9"/>
       <c r="J247" s="11"/>
-      <c r="K247" s="20"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B248" s="20"/>
+      <c r="K247" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A248" s="40"/>
+      <c r="B248" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C248" s="13"/>
       <c r="D248" s="39"/>
       <c r="E248" s="9"/>
@@ -8972,14 +8991,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H248" s="39"/>
+      <c r="H248" s="39">
+        <v>1</v>
+      </c>
       <c r="I248" s="9"/>
       <c r="J248" s="11"/>
-      <c r="K248" s="20"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K248" s="48">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -8995,9 +9018,9 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -9013,9 +9036,9 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -9031,9 +9054,9 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -9049,9 +9072,9 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -9067,9 +9090,9 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -9085,21 +9108,57 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="49"/>
-      <c r="B255" s="15"/>
-      <c r="C255" s="41"/>
-      <c r="D255" s="42"/>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B255" s="20"/>
+      <c r="C255" s="13"/>
+      <c r="D255" s="39"/>
       <c r="E255" s="9"/>
-      <c r="F255" s="15"/>
-      <c r="G255" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H255" s="42"/>
+      <c r="F255" s="20"/>
+      <c r="G255" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H255" s="39"/>
       <c r="I255" s="9"/>
-      <c r="J255" s="12"/>
-      <c r="K255" s="15"/>
+      <c r="J255" s="11"/>
+      <c r="K255" s="20"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B256" s="20"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="39"/>
+      <c r="E256" s="9"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H256" s="39"/>
+      <c r="I256" s="9"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="20"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="49"/>
+      <c r="B257" s="15"/>
+      <c r="C257" s="41"/>
+      <c r="D257" s="42"/>
+      <c r="E257" s="9"/>
+      <c r="F257" s="15"/>
+      <c r="G257" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H257" s="42"/>
+      <c r="I257" s="9"/>
+      <c r="J257" s="12"/>
+      <c r="K257" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9116,10 +9175,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9142,7 +9201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -9150,21 +9209,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -9177,7 +9236,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9206,7 +9265,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -9232,17 +9291,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9263,7 +9322,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9290,7 +9349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9316,7 +9375,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9342,7 +9401,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9368,7 +9427,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9394,7 +9453,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9420,7 +9479,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9446,7 +9505,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9472,7 +9531,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9492,7 +9551,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9512,7 +9571,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9532,7 +9591,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9553,7 +9612,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9574,7 +9633,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9595,7 +9654,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9616,7 +9675,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9637,7 +9696,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9658,7 +9717,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9679,7 +9738,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9700,7 +9759,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9721,7 +9780,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9742,7 +9801,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9763,7 +9822,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9784,7 +9843,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9805,7 +9864,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9826,7 +9885,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9847,7 +9906,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9868,7 +9927,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9889,7 +9948,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9910,7 +9969,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9931,7 +9990,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9952,7 +10011,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9961,7 +10020,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9970,7 +10029,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9979,7 +10038,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9988,7 +10047,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9997,7 +10056,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10006,7 +10065,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10015,7 +10074,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10024,7 +10083,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10033,7 +10092,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10042,7 +10101,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10051,7 +10110,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10060,7 +10119,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10069,7 +10128,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10078,7 +10137,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10087,7 +10146,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10096,7 +10155,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10105,7 +10164,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10114,7 +10173,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10123,7 +10182,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10132,7 +10191,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10141,7 +10200,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10150,7 +10209,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10159,7 +10218,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10168,7 +10227,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10177,7 +10236,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10186,7 +10245,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10195,7 +10254,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10204,7 +10263,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10213,7 +10272,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/OJT/NEW DONE/AUDITOR, AILEEN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD3BF4C-2B64-4E23-8F3F-75C7ADB24555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23D4142-6CFF-4841-AB41-86177A8081F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="211">
   <si>
     <t>PERIOD</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>5/29,30/2023</t>
+  </si>
+  <si>
+    <t>6/26,27/2023</t>
   </si>
 </sst>
 </file>
@@ -3065,7 +3068,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K257" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K258" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3443,12 +3446,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K257"/>
+  <dimension ref="A2:K258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3672" topLeftCell="A235" activePane="bottomLeft"/>
+      <pane ySplit="3672" topLeftCell="A244" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="B249" sqref="B249"/>
+      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3613,7 +3616,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.5130000000000337</v>
+        <v>6.7630000000000337</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3623,7 +3626,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>47</v>
+        <v>46.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8961,13 +8964,15 @@
       <c r="B247" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C247" s="13"/>
+      <c r="C247" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D247" s="39"/>
       <c r="E247" s="9"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G247" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H247" s="39">
         <v>2</v>
@@ -9001,10 +9006,10 @@
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A249" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B249" s="20"/>
+      <c r="A249" s="40"/>
+      <c r="B249" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C249" s="13"/>
       <c r="D249" s="39"/>
       <c r="E249" s="9"/>
@@ -9013,14 +9018,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H249" s="39"/>
+      <c r="H249" s="39">
+        <v>2</v>
+      </c>
       <c r="I249" s="9"/>
       <c r="J249" s="11"/>
-      <c r="K249" s="20"/>
+      <c r="K249" s="48" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -9038,7 +9047,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -9056,7 +9065,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -9074,7 +9083,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -9092,7 +9101,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -9110,7 +9119,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -9128,7 +9137,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -9145,20 +9154,38 @@
       <c r="K256" s="20"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A257" s="49"/>
-      <c r="B257" s="15"/>
-      <c r="C257" s="41"/>
-      <c r="D257" s="42"/>
+      <c r="A257" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B257" s="20"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="39"/>
       <c r="E257" s="9"/>
-      <c r="F257" s="15"/>
-      <c r="G257" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H257" s="42"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H257" s="39"/>
       <c r="I257" s="9"/>
-      <c r="J257" s="12"/>
-      <c r="K257" s="15"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="20"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="49"/>
+      <c r="B258" s="15"/>
+      <c r="C258" s="41"/>
+      <c r="D258" s="42"/>
+      <c r="E258" s="9"/>
+      <c r="F258" s="15"/>
+      <c r="G258" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H258" s="42"/>
+      <c r="I258" s="9"/>
+      <c r="J258" s="12"/>
+      <c r="K258" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
